--- a/Pharmacy_base/group_pharmtherapy.xlsx
+++ b/Pharmacy_base/group_pharmtherapy.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="utf-8" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="773">
   <si>
     <t>first_name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Pharmacotherapeutic_group</t>
   </si>
   <si>
+    <t>Allvit</t>
+  </si>
+  <si>
     <t>АЦЦ</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>Амлодипин</t>
   </si>
   <si>
+    <t>Амлодипин+Валсартан</t>
+  </si>
+  <si>
     <t>Амлодипин-Периндоприл</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>Антарейт</t>
   </si>
   <si>
+    <t>Антигриппин</t>
+  </si>
+  <si>
     <t>Антигриппин-анви</t>
   </si>
   <si>
@@ -154,9 +163,6 @@
     <t>Апизартрон</t>
   </si>
   <si>
-    <t>Апроваск</t>
-  </si>
-  <si>
     <t>Апровель</t>
   </si>
   <si>
@@ -184,6 +190,9 @@
     <t>Артраксикам</t>
   </si>
   <si>
+    <t>Артрокер</t>
+  </si>
+  <si>
     <t>Аскорил</t>
   </si>
   <si>
@@ -256,13 +265,16 @@
     <t>Барсучий</t>
   </si>
   <si>
+    <t>Бейби</t>
+  </si>
+  <si>
     <t>Бекарбон</t>
   </si>
   <si>
     <t>Белластезин</t>
   </si>
   <si>
-    <t>Белый</t>
+    <t>Бензидамин</t>
   </si>
   <si>
     <t>Берлиприл</t>
@@ -280,12 +292,12 @@
     <t>Бефунгин</t>
   </si>
   <si>
+    <t>Биение</t>
+  </si>
+  <si>
     <t>Бикситор</t>
   </si>
   <si>
-    <t>Биобаланс</t>
-  </si>
-  <si>
     <t>Бипрол</t>
   </si>
   <si>
@@ -349,9 +361,6 @@
     <t>Бруфен</t>
   </si>
   <si>
-    <t>Бруфика</t>
-  </si>
-  <si>
     <t>Буденофальк</t>
   </si>
   <si>
@@ -364,6 +373,9 @@
     <t>Быструмгель</t>
   </si>
   <si>
+    <t>Вазаламин</t>
+  </si>
+  <si>
     <t>Вазелиновое</t>
   </si>
   <si>
@@ -385,6 +397,12 @@
     <t>Валсартан</t>
   </si>
   <si>
+    <t>Валсартан+Гидрохлоротиазид</t>
+  </si>
+  <si>
+    <t>Валсартан-Гидрохлоротиазид</t>
+  </si>
+  <si>
     <t>Вальсакор</t>
   </si>
   <si>
@@ -397,12 +415,6 @@
     <t>Везикар</t>
   </si>
   <si>
-    <t>Венам</t>
-  </si>
-  <si>
-    <t>Венапрокт</t>
-  </si>
-  <si>
     <t>Венарус</t>
   </si>
   <si>
@@ -418,9 +430,6 @@
     <t>Версатис</t>
   </si>
   <si>
-    <t>Вибронорм</t>
-  </si>
-  <si>
     <t>Виброцил</t>
   </si>
   <si>
@@ -442,6 +451,9 @@
     <t>Вольтарен</t>
   </si>
   <si>
+    <t>Гайро</t>
+  </si>
+  <si>
     <t>Галавит</t>
   </si>
   <si>
@@ -550,6 +562,9 @@
     <t>Дазолик</t>
   </si>
   <si>
+    <t>Даларгин</t>
+  </si>
+  <si>
     <t>Дальнева</t>
   </si>
   <si>
@@ -574,6 +589,9 @@
     <t>Диалрапид</t>
   </si>
   <si>
+    <t>Диара</t>
+  </si>
+  <si>
     <t>Диартрин</t>
   </si>
   <si>
@@ -586,6 +604,9 @@
     <t>Дибикор</t>
   </si>
   <si>
+    <t>Дигидрокверцетин</t>
+  </si>
+  <si>
     <t>Диклофенак</t>
   </si>
   <si>
@@ -604,7 +625,7 @@
     <t>Диоридинвел</t>
   </si>
   <si>
-    <t>Диосмин</t>
+    <t>Диосмин+Гесперидин</t>
   </si>
   <si>
     <t>Дип</t>
@@ -619,9 +640,6 @@
     <t>Диувер</t>
   </si>
   <si>
-    <t>Дицетел</t>
-  </si>
-  <si>
     <t>Докси-Хем</t>
   </si>
   <si>
@@ -640,9 +658,6 @@
     <t>Долфин</t>
   </si>
   <si>
-    <t>Домперидон</t>
-  </si>
-  <si>
     <t>Допегит</t>
   </si>
   <si>
@@ -652,6 +667,9 @@
     <t>Драмина</t>
   </si>
   <si>
+    <t>Дриптан</t>
+  </si>
+  <si>
     <t>Дротаверин</t>
   </si>
   <si>
@@ -691,9 +709,6 @@
     <t>Зостерин</t>
   </si>
   <si>
-    <t>Иберогаст</t>
-  </si>
-  <si>
     <t>Ибуклин</t>
   </si>
   <si>
@@ -703,18 +718,21 @@
     <t>Идринол</t>
   </si>
   <si>
+    <t>Изжогинет</t>
+  </si>
+  <si>
     <t>Изоптин</t>
   </si>
   <si>
     <t>Изофра</t>
   </si>
   <si>
+    <t>Имодиум</t>
+  </si>
+  <si>
     <t>Имудон</t>
   </si>
   <si>
-    <t>ИнгаСпрей</t>
-  </si>
-  <si>
     <t>Ингавирин</t>
   </si>
   <si>
@@ -751,12 +769,6 @@
     <t>Йокс</t>
   </si>
   <si>
-    <t>Календула</t>
-  </si>
-  <si>
-    <t>Калий</t>
-  </si>
-  <si>
     <t>Калия</t>
   </si>
   <si>
@@ -802,7 +814,7 @@
     <t>Карведилол</t>
   </si>
   <si>
-    <t>Кардикет</t>
+    <t>Кардиоактив</t>
   </si>
   <si>
     <t>Кардиолип</t>
@@ -898,9 +910,6 @@
     <t>Колофорт</t>
   </si>
   <si>
-    <t>Комбифлокс</t>
-  </si>
-  <si>
     <t>Комплекс</t>
   </si>
   <si>
@@ -958,6 +967,9 @@
     <t>Ксефокам</t>
   </si>
   <si>
+    <t>Ксилокт</t>
+  </si>
+  <si>
     <t>Ксилометазолин</t>
   </si>
   <si>
@@ -976,7 +988,7 @@
     <t>Лактитол</t>
   </si>
   <si>
-    <t>Лактобактерии</t>
+    <t>ЛактоБи</t>
   </si>
   <si>
     <t>Лактобаланс</t>
@@ -1045,9 +1057,6 @@
     <t>Липобон</t>
   </si>
   <si>
-    <t>Липримар</t>
-  </si>
-  <si>
     <t>Лодоз</t>
   </si>
   <si>
@@ -1099,12 +1108,18 @@
     <t>Макмирор</t>
   </si>
   <si>
+    <t>Максиколд</t>
+  </si>
+  <si>
     <t>Максилак</t>
   </si>
   <si>
     <t>Масло</t>
   </si>
   <si>
+    <t>Мебеверин</t>
+  </si>
+  <si>
     <t>Мезим</t>
   </si>
   <si>
@@ -1177,21 +1192,30 @@
     <t>Морская</t>
   </si>
   <si>
-    <t>Мотилак</t>
-  </si>
-  <si>
     <t>Мотилиум</t>
   </si>
   <si>
+    <t>Мотилорус</t>
+  </si>
+  <si>
+    <t>Мотогастрик</t>
+  </si>
+  <si>
     <t>Мукалтин</t>
   </si>
   <si>
+    <t>Мукалтинол</t>
+  </si>
+  <si>
     <t>Мукофальк</t>
   </si>
   <si>
     <t>Мукоцил</t>
   </si>
   <si>
+    <t>Мятные</t>
+  </si>
+  <si>
     <t>Мяты</t>
   </si>
   <si>
@@ -1249,9 +1273,6 @@
     <t>Нео-анузол</t>
   </si>
   <si>
-    <t>Необиотик</t>
-  </si>
-  <si>
     <t>Необутин</t>
   </si>
   <si>
@@ -1279,27 +1300,18 @@
     <t>Нипертен</t>
   </si>
   <si>
-    <t>Нитроглицерин</t>
-  </si>
-  <si>
     <t>Нитроминт</t>
   </si>
   <si>
     <t>Нитросорбид</t>
   </si>
   <si>
-    <t>Нитроспрей</t>
-  </si>
-  <si>
     <t>Нифедипин</t>
   </si>
   <si>
     <t>Нифекард</t>
   </si>
   <si>
-    <t>Нифурал</t>
-  </si>
-  <si>
     <t>Нифуроксазид</t>
   </si>
   <si>
@@ -1318,6 +1330,9 @@
     <t>Новокаин</t>
   </si>
   <si>
+    <t>Новосмект</t>
+  </si>
+  <si>
     <t>Нолипрел</t>
   </si>
   <si>
@@ -1336,16 +1351,13 @@
     <t>Нэйчес</t>
   </si>
   <si>
-    <t>Облепиховое</t>
-  </si>
-  <si>
     <t>Оки</t>
   </si>
   <si>
     <t>Оксифрин</t>
   </si>
   <si>
-    <t>Оксолиновая</t>
+    <t>Олестезин</t>
   </si>
   <si>
     <t>Омакор</t>
@@ -1360,6 +1372,9 @@
     <t>Омизак</t>
   </si>
   <si>
+    <t>Ондансетрон</t>
+  </si>
+  <si>
     <t>Оралсепт</t>
   </si>
   <si>
@@ -1378,6 +1393,9 @@
     <t>Осельтамивир</t>
   </si>
   <si>
+    <t>Отипакс</t>
+  </si>
+  <si>
     <t>Отофа</t>
   </si>
   <si>
@@ -1402,6 +1420,9 @@
     <t>Пантопразол</t>
   </si>
   <si>
+    <t>Панум</t>
+  </si>
+  <si>
     <t>Папаверин</t>
   </si>
   <si>
@@ -1420,6 +1441,9 @@
     <t>Париет</t>
   </si>
   <si>
+    <t>Парнавел</t>
+  </si>
+  <si>
     <t>Пассажикс</t>
   </si>
   <si>
@@ -1447,9 +1471,6 @@
     <t>Перца</t>
   </si>
   <si>
-    <t>Пикосульфат</t>
-  </si>
-  <si>
     <t>Пилобакт</t>
   </si>
   <si>
@@ -1459,9 +1480,6 @@
     <t>Пироксикам</t>
   </si>
   <si>
-    <t>Плантолаксин</t>
-  </si>
-  <si>
     <t>Пластырь</t>
   </si>
   <si>
@@ -1483,9 +1501,6 @@
     <t>Постеризан</t>
   </si>
   <si>
-    <t>Прегинор</t>
-  </si>
-  <si>
     <t>Предуктал</t>
   </si>
   <si>
@@ -1513,6 +1528,9 @@
     <t>Проктонис</t>
   </si>
   <si>
+    <t>Проктостезол</t>
+  </si>
+  <si>
     <t>Пропанорм</t>
   </si>
   <si>
@@ -1522,12 +1540,18 @@
     <t>Простолор</t>
   </si>
   <si>
+    <t>Простосорб</t>
+  </si>
+  <si>
     <t>Протаргол</t>
   </si>
   <si>
     <t>Псиллиум</t>
   </si>
   <si>
+    <t>Рабепразол</t>
+  </si>
+  <si>
     <t>Рабиет</t>
   </si>
   <si>
@@ -1555,12 +1579,12 @@
     <t>Рафамин</t>
   </si>
   <si>
+    <t>Ребамипид</t>
+  </si>
+  <si>
     <t>Регулакс</t>
   </si>
   <si>
-    <t>Релибаланс</t>
-  </si>
-  <si>
     <t>Релиф</t>
   </si>
   <si>
@@ -1630,6 +1654,9 @@
     <t>Самеликс</t>
   </si>
   <si>
+    <t>Санорин</t>
+  </si>
+  <si>
     <t>Седальгин</t>
   </si>
   <si>
@@ -1648,6 +1675,9 @@
     <t>Септолете</t>
   </si>
   <si>
+    <t>Сиалор</t>
+  </si>
+  <si>
     <t>Сиднофарм</t>
   </si>
   <si>
@@ -1681,6 +1711,9 @@
     <t>Смектит</t>
   </si>
   <si>
+    <t>Смектолин</t>
+  </si>
+  <si>
     <t>Снуппик</t>
   </si>
   <si>
@@ -1696,12 +1729,6 @@
     <t>Солпадеин</t>
   </si>
   <si>
-    <t>Сорбектин</t>
-  </si>
-  <si>
-    <t>Сорбикум</t>
-  </si>
-  <si>
     <t>Сотагексал</t>
   </si>
   <si>
@@ -1717,9 +1744,6 @@
     <t>Спазмалгон</t>
   </si>
   <si>
-    <t>Спазмастоп</t>
-  </si>
-  <si>
     <t>Спазмекс</t>
   </si>
   <si>
@@ -1738,6 +1762,9 @@
     <t>Сувардио</t>
   </si>
   <si>
+    <t>Супрозафен</t>
+  </si>
+  <si>
     <t>Тантум</t>
   </si>
   <si>
@@ -1786,9 +1813,6 @@
     <t>Тимоген</t>
   </si>
   <si>
-    <t>Тиотриазолин</t>
-  </si>
-  <si>
     <t>Тонзилгон</t>
   </si>
   <si>
@@ -1828,9 +1852,6 @@
     <t>Триметазидин</t>
   </si>
   <si>
-    <t>Трипликсам</t>
-  </si>
-  <si>
     <t>Трихопол</t>
   </si>
   <si>
@@ -1843,9 +1864,6 @@
     <t>Троксиметацин</t>
   </si>
   <si>
-    <t>Тромбогель</t>
-  </si>
-  <si>
     <t>Уголь</t>
   </si>
   <si>
@@ -1867,6 +1885,9 @@
     <t>Урсосан</t>
   </si>
   <si>
+    <t>Урсофальк</t>
+  </si>
+  <si>
     <t>Урцевел</t>
   </si>
   <si>
@@ -1885,6 +1906,9 @@
     <t>Фелодипин</t>
   </si>
   <si>
+    <t>Феназалгин</t>
+  </si>
+  <si>
     <t>Фервекс</t>
   </si>
   <si>
@@ -1903,6 +1927,9 @@
     <t>Фито-Арома</t>
   </si>
   <si>
+    <t>ФитоСепт</t>
+  </si>
+  <si>
     <t>Фитолакс</t>
   </si>
   <si>
@@ -1924,9 +1951,6 @@
     <t>Флебофа</t>
   </si>
   <si>
-    <t>Флогардин</t>
-  </si>
-  <si>
     <t>Флорок</t>
   </si>
   <si>
@@ -1963,6 +1987,12 @@
     <t>Хайрабезол</t>
   </si>
   <si>
+    <t>Хартил</t>
+  </si>
+  <si>
+    <t>Хит</t>
+  </si>
+  <si>
     <t>Холензим</t>
   </si>
   <si>
@@ -1981,9 +2011,6 @@
     <t>Хофицин</t>
   </si>
   <si>
-    <t>Целебрекс</t>
-  </si>
-  <si>
     <t>Целекоксиб</t>
   </si>
   <si>
@@ -1999,6 +2026,9 @@
     <t>Циклоферон</t>
   </si>
   <si>
+    <t>Ципромед</t>
+  </si>
+  <si>
     <t>Цитовир-3</t>
   </si>
   <si>
@@ -2023,6 +2053,9 @@
     <t>Эдарби</t>
   </si>
   <si>
+    <t>Эдомари</t>
+  </si>
+  <si>
     <t>Эзетимиб</t>
   </si>
   <si>
@@ -2098,9 +2131,6 @@
     <t>Эргоферон</t>
   </si>
   <si>
-    <t>Эринит</t>
-  </si>
-  <si>
     <t>Эскорди</t>
   </si>
   <si>
@@ -2122,12 +2152,15 @@
     <t>Эсслиал</t>
   </si>
   <si>
+    <t>Эссливер</t>
+  </si>
+  <si>
+    <t>Эсфолив-Лекфарм</t>
+  </si>
+  <si>
     <t>Этария</t>
   </si>
   <si>
-    <t>Этацизин</t>
-  </si>
-  <si>
     <t>Эторелекс</t>
   </si>
   <si>
@@ -2149,18 +2182,21 @@
     <t>таблетки</t>
   </si>
   <si>
+    <t>Not value</t>
+  </si>
+  <si>
     <t>Муколитические и отхаркивающие средства</t>
   </si>
   <si>
-    <t>Not value</t>
-  </si>
-  <si>
     <t>Противопростудные комплексы</t>
   </si>
   <si>
     <t>Регуляторы кишечной микрофлоры</t>
   </si>
   <si>
+    <t>Средства при диарее</t>
+  </si>
+  <si>
     <t>Прочие средства в кардиологии</t>
   </si>
   <si>
@@ -2224,73 +2260,70 @@
     <t>Иммуномодуляторы. Иммуностимуляторы</t>
   </si>
   <si>
+    <t>Средства при метеоризме</t>
+  </si>
+  <si>
+    <t>Прочие средства в урологии</t>
+  </si>
+  <si>
+    <t>Слабительные средства</t>
+  </si>
+  <si>
+    <t>Местнораздражающие средства</t>
+  </si>
+  <si>
+    <t>Антиангинальные средства</t>
+  </si>
+  <si>
+    <t>Миотропные спазмолитики</t>
+  </si>
+  <si>
+    <t>Прочие средства (Витамины)</t>
+  </si>
+  <si>
+    <t>Венотонизирующие внутренние средства</t>
+  </si>
+  <si>
+    <t>Венотонизирующие наружные средства</t>
+  </si>
+  <si>
+    <t>Противопротозойные средства</t>
+  </si>
+  <si>
+    <t>Средства при боли в горле</t>
+  </si>
+  <si>
+    <t>Противовирусные средства наружного применения</t>
+  </si>
+  <si>
+    <t>Гепатопротекторы</t>
+  </si>
+  <si>
+    <t>Прочие средства в неврологии</t>
+  </si>
+  <si>
+    <t>Прочие средства в ЛОР</t>
+  </si>
+  <si>
+    <t>Средства повышающие давление</t>
+  </si>
+  <si>
+    <t>Средства спазмолитики</t>
+  </si>
+  <si>
+    <t>Прочие средства в пульмонологии</t>
+  </si>
+  <si>
+    <t>Противорвотные средства</t>
+  </si>
+  <si>
     <t>Энтеросорбенты</t>
   </si>
   <si>
-    <t>Прочие средства в урологии</t>
-  </si>
-  <si>
-    <t>Слабительные средства</t>
-  </si>
-  <si>
-    <t>Местнораздражающие средства</t>
-  </si>
-  <si>
-    <t>Антиангинальные средства</t>
-  </si>
-  <si>
-    <t>Миотропные спазмолитики</t>
-  </si>
-  <si>
-    <t>Венотонизирующие внутренние средства</t>
-  </si>
-  <si>
-    <t>Венотонизирующие наружные средства</t>
-  </si>
-  <si>
-    <t>Средства при боли в горле</t>
-  </si>
-  <si>
-    <t>Противовирусные средства наружного применения</t>
-  </si>
-  <si>
-    <t>Гепатопротекторы</t>
-  </si>
-  <si>
-    <t>Средства при диарее</t>
-  </si>
-  <si>
-    <t>Прочие средства в неврологии</t>
-  </si>
-  <si>
-    <t>Прочие средства в ЛОР</t>
-  </si>
-  <si>
-    <t>Противопротозойные средства</t>
-  </si>
-  <si>
-    <t>Средства повышающие давление</t>
-  </si>
-  <si>
-    <t>Средства спазмолитики</t>
-  </si>
-  <si>
-    <t>Прочие средства в пульмонологии</t>
-  </si>
-  <si>
-    <t>Противорвотные средства</t>
-  </si>
-  <si>
-    <t>Прочие средства (Витамины)</t>
-  </si>
-  <si>
     <t>Кардиотонические средства</t>
   </si>
   <si>
     <t>Средства улучшающие мозговое кровообращение</t>
-  </si>
-  <si>
-    <t>Средства при метеоризме</t>
   </si>
   <si>
     <t>Моновитамины</t>
@@ -2657,7 +2690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B833"/>
+  <dimension ref="A2:B851"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2676,7 +2709,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2684,7 +2717,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2692,7 +2725,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2700,7 +2733,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2708,29 +2741,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2738,29 +2771,29 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2768,7 +2801,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2776,7 +2809,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2784,7 +2817,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2792,7 +2825,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2800,7 +2833,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2808,7 +2841,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2816,7 +2849,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2824,7 +2857,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2832,7 +2865,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>711</v>
+        <v>736</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2840,35 +2873,35 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2876,21 +2909,21 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2898,7 +2931,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2906,7 +2939,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2914,7 +2947,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2922,29 +2955,29 @@
         <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B36" s="1" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2952,7 +2985,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>713</v>
+        <v>739</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2960,7 +2993,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2968,7 +3001,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2976,7 +3009,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2984,7 +3017,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2992,7 +3025,7 @@
         <v>37</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3000,7 +3033,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3008,7 +3041,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>713</v>
+        <v>742</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3016,7 +3049,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>713</v>
+        <v>733</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3024,7 +3057,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3032,7 +3065,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3040,7 +3073,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3048,7 +3081,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3056,7 +3089,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3064,7 +3097,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3072,7 +3105,7 @@
         <v>47</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3080,7 +3113,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3088,7 +3121,7 @@
         <v>49</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3096,7 +3129,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3104,7 +3137,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3112,7 +3145,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3120,7 +3153,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3128,7 +3161,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>712</v>
+        <v>743</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3136,7 +3169,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3144,7 +3177,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3152,7 +3185,7 @@
         <v>57</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3160,65 +3193,65 @@
         <v>58</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B66" s="1" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="B72" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3226,7 +3259,7 @@
         <v>64</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3234,69 +3267,69 @@
         <v>65</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>730</v>
+        <v>744</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>712</v>
+        <v>742</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>726</v>
+        <v>740</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3304,7 +3337,7 @@
         <v>73</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3312,7 +3345,7 @@
         <v>74</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>714</v>
+        <v>738</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3320,13 +3353,13 @@
         <v>75</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3334,7 +3367,7 @@
         <v>76</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>714</v>
+        <v>746</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3342,21 +3375,21 @@
         <v>77</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B90" s="1" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3364,7 +3397,7 @@
         <v>79</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3376,56 +3409,54 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>723</v>
+        <v>747</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>723</v>
+        <v>748</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>722</v>
@@ -3433,56 +3464,58 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3490,7 +3523,7 @@
         <v>94</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3498,7 +3531,7 @@
         <v>95</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>714</v>
+        <v>750</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3506,7 +3539,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>714</v>
+        <v>750</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3514,124 +3547,120 @@
         <v>97</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A112" s="1"/>
       <c r="B112" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>712</v>
+        <v>751</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>712</v>
+        <v>752</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>712</v>
+        <v>738</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>722</v>
@@ -3639,250 +3668,254 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="1"/>
+      <c r="A132" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="B132" s="1" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>712</v>
+        <v>754</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>715</v>
+        <v>750</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>712</v>
+        <v>749</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>725</v>
+        <v>756</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>712</v>
+        <v>743</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="1"/>
+      <c r="A155" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B155" s="1" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>714</v>
+        <v>745</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3890,13 +3923,13 @@
         <v>141</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3904,7 +3937,7 @@
         <v>142</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3912,7 +3945,7 @@
         <v>143</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3920,53 +3953,53 @@
         <v>144</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>721</v>
+        <v>757</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>712</v>
+        <v>747</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>721</v>
+        <v>753</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="1"/>
       <c r="B169" s="1" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3974,7 +4007,7 @@
         <v>150</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3982,7 +4015,7 @@
         <v>151</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>745</v>
+        <v>722</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3990,7 +4023,7 @@
         <v>152</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3998,77 +4031,77 @@
         <v>153</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="A174" s="1"/>
       <c r="B174" s="1" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>712</v>
+        <v>759</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="1"/>
       <c r="B182" s="1" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -4076,7 +4109,7 @@
         <v>162</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>712</v>
+        <v>760</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -4084,7 +4117,7 @@
         <v>163</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>711</v>
+        <v>742</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -4092,7 +4125,7 @@
         <v>164</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -4100,69 +4133,69 @@
         <v>165</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="A187" s="1"/>
       <c r="B187" s="1" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>744</v>
+        <v>761</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="1"/>
       <c r="B194" s="1" t="s">
-        <v>713</v>
+        <v>743</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4170,7 +4203,7 @@
         <v>173</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4178,7 +4211,7 @@
         <v>174</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>745</v>
+        <v>762</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4186,7 +4219,7 @@
         <v>175</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>712</v>
+        <v>758</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4194,29 +4227,29 @@
         <v>176</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
-        <v>750</v>
+        <v>724</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
-        <v>723</v>
+        <v>759</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4224,7 +4257,7 @@
         <v>179</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4232,37 +4265,37 @@
         <v>180</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>718</v>
+        <v>750</v>
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="1"/>
+      <c r="A204" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="B204" s="1" t="s">
-        <v>726</v>
+        <v>757</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>742</v>
+        <v>763</v>
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -4270,7 +4303,7 @@
         <v>184</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -4278,29 +4311,29 @@
         <v>185</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="A210" s="1"/>
       <c r="B210" s="1" t="s">
-        <v>718</v>
+        <v>738</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
-        <v>718</v>
+        <v>755</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -4308,263 +4341,263 @@
         <v>188</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>752</v>
+        <v>722</v>
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="A214" s="1"/>
       <c r="B214" s="1" t="s">
-        <v>715</v>
+        <v>755</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="1"/>
       <c r="B216" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="1"/>
+      <c r="A217" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="B217" s="1" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="A220" s="1"/>
       <c r="B220" s="1" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="1"/>
+      <c r="A221" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="B221" s="1" t="s">
-        <v>739</v>
+        <v>764</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="A225" s="1"/>
       <c r="B225" s="1" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="1" t="s">
-        <v>198</v>
-      </c>
+      <c r="A226" s="1"/>
       <c r="B226" s="1" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="1" t="s">
-        <v>202</v>
-      </c>
+      <c r="A230" s="1"/>
       <c r="B230" s="1" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="1"/>
       <c r="B233" s="1" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="1"/>
+      <c r="A234" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="B234" s="1" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="1"/>
+      <c r="A235" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="B235" s="1" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="1" t="s">
-        <v>208</v>
-      </c>
+      <c r="A240" s="1"/>
       <c r="B240" s="1" t="s">
-        <v>754</v>
+        <v>723</v>
       </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="A241" s="1"/>
       <c r="B241" s="1" t="s">
-        <v>723</v>
+        <v>765</v>
       </c>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="1" t="s">
-        <v>210</v>
-      </c>
+      <c r="A242" s="1"/>
       <c r="B242" s="1" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="1"/>
       <c r="B247" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4572,7 +4605,7 @@
         <v>215</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -4580,7 +4613,7 @@
         <v>216</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>739</v>
+        <v>766</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4588,7 +4621,7 @@
         <v>217</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4596,7 +4629,7 @@
         <v>218</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>714</v>
+        <v>764</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4604,7 +4637,7 @@
         <v>219</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4612,113 +4645,113 @@
         <v>220</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="1" t="s">
-        <v>221</v>
-      </c>
+      <c r="A254" s="1"/>
       <c r="B254" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="1" t="s">
-        <v>223</v>
-      </c>
+      <c r="A256" s="1"/>
       <c r="B256" s="1" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>712</v>
+        <v>751</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>724</v>
+        <v>767</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="1"/>
+      <c r="A260" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="B260" s="1" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="1"/>
       <c r="B262" s="1" t="s">
-        <v>725</v>
+        <v>768</v>
       </c>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="1"/>
+      <c r="A263" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="B263" s="1" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>715</v>
+        <v>751</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="1" t="s">
-        <v>231</v>
-      </c>
+      <c r="A267" s="1"/>
       <c r="B267" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4726,83 +4759,83 @@
         <v>232</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="A269" s="1"/>
       <c r="B269" s="1" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="A270" s="1"/>
       <c r="B270" s="1" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="1"/>
+      <c r="A274" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="B274" s="1" t="s">
-        <v>731</v>
+        <v>745</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>725</v>
+        <v>747</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B277" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="1"/>
       <c r="B278" s="1" t="s">
-        <v>718</v>
+        <v>758</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4810,29 +4843,29 @@
         <v>241</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>712</v>
+        <v>759</v>
       </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="1"/>
+      <c r="A280" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="B280" s="1" t="s">
-        <v>751</v>
+        <v>723</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="1" t="s">
-        <v>243</v>
-      </c>
+      <c r="A282" s="1"/>
       <c r="B282" s="1" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4840,313 +4873,313 @@
         <v>244</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="A284" s="1"/>
       <c r="B284" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
     </row>
     <row r="287" spans="1:2">
-      <c r="A287" s="1" t="s">
-        <v>248</v>
-      </c>
+      <c r="A287" s="1"/>
       <c r="B287" s="1" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="A289" s="1"/>
       <c r="B289" s="1" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="1"/>
+      <c r="A291" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="B291" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>712</v>
+        <v>758</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>727</v>
+        <v>758</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="1" t="s">
-        <v>258</v>
-      </c>
+      <c r="A298" s="1"/>
       <c r="B298" s="1" t="s">
-        <v>723</v>
+        <v>758</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>712</v>
+        <v>751</v>
       </c>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="1"/>
+      <c r="A301" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="B301" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="A308" s="1"/>
       <c r="B308" s="1" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="1"/>
+      <c r="A314" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="B314" s="1" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="1"/>
+      <c r="A315" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="B315" s="1" t="s">
-        <v>726</v>
+        <v>769</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>718</v>
+        <v>760</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="1"/>
       <c r="B318" s="1" t="s">
-        <v>725</v>
+        <v>745</v>
       </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="1"/>
+      <c r="A319" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="B319" s="1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="1" t="s">
-        <v>276</v>
-      </c>
+      <c r="A321" s="1"/>
       <c r="B321" s="1" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="1" t="s">
+      <c r="A322" s="1"/>
+      <c r="B322" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="1"/>
       <c r="B323" s="1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5154,817 +5187,817 @@
         <v>278</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="1" t="s">
+      <c r="A325" s="1"/>
+      <c r="B325" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1"/>
+      <c r="B326" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="1"/>
       <c r="B327" s="1" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="A330" s="1"/>
       <c r="B330" s="1" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="1"/>
+      <c r="A332" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="B332" s="1" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="1" t="s">
-        <v>286</v>
-      </c>
+      <c r="A334" s="1"/>
       <c r="B334" s="1" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1"/>
       <c r="B339" s="1" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1"/>
       <c r="B346" s="1" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>712</v>
+        <v>753</v>
       </c>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="1"/>
+      <c r="A350" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="B350" s="1" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="1" t="s">
-        <v>300</v>
-      </c>
+      <c r="A351" s="1"/>
       <c r="B351" s="1" t="s">
-        <v>719</v>
+        <v>760</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="1" t="s">
-        <v>302</v>
-      </c>
+      <c r="A353" s="1"/>
       <c r="B353" s="1" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="1" t="s">
-        <v>306</v>
-      </c>
+      <c r="A357" s="1"/>
       <c r="B357" s="1" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>711</v>
+        <v>731</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="1"/>
+      <c r="A360" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="B360" s="1" t="s">
-        <v>726</v>
+        <v>763</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="1"/>
+      <c r="A364" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="B364" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
     </row>
     <row r="367" spans="1:2">
-      <c r="A367" s="1" t="s">
-        <v>314</v>
-      </c>
+      <c r="A367" s="1"/>
       <c r="B367" s="1" t="s">
-        <v>712</v>
+        <v>738</v>
       </c>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="1"/>
+      <c r="A368" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="B368" s="1" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>729</v>
+        <v>756</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="371" spans="1:2">
-      <c r="A371" s="1" t="s">
-        <v>317</v>
-      </c>
+      <c r="A371" s="1"/>
       <c r="B371" s="1" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>711</v>
+        <v>744</v>
       </c>
     </row>
     <row r="373" spans="1:2">
-      <c r="A373" s="1"/>
+      <c r="A373" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="B373" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
     </row>
     <row r="376" spans="1:2">
-      <c r="A376" s="1" t="s">
-        <v>321</v>
-      </c>
+      <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
-        <v>714</v>
+        <v>745</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>712</v>
+        <v>741</v>
       </c>
     </row>
     <row r="378" spans="1:2">
-      <c r="A378" s="1"/>
+      <c r="A378" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="B378" s="1" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>722</v>
+        <v>760</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>746</v>
+        <v>723</v>
       </c>
     </row>
     <row r="381" spans="1:2">
-      <c r="A381" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="A381" s="1"/>
       <c r="B381" s="1" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>712</v>
+        <v>750</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>751</v>
+        <v>722</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1"/>
       <c r="B386" s="1" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
     </row>
     <row r="388" spans="1:2">
-      <c r="A388" s="1"/>
+      <c r="A388" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="B388" s="1" t="s">
-        <v>723</v>
+        <v>760</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>717</v>
+        <v>763</v>
       </c>
     </row>
     <row r="394" spans="1:2">
-      <c r="A394" s="1" t="s">
-        <v>336</v>
-      </c>
+      <c r="A394" s="1"/>
       <c r="B394" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
     </row>
     <row r="396" spans="1:2">
-      <c r="A396" s="1" t="s">
-        <v>338</v>
-      </c>
+      <c r="A396" s="1"/>
       <c r="B396" s="1" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>714</v>
+        <v>743</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>712</v>
+        <v>743</v>
       </c>
     </row>
     <row r="399" spans="1:2">
-      <c r="A399" s="1"/>
+      <c r="A399" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="B399" s="1" t="s">
-        <v>711</v>
+        <v>760</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>712</v>
+        <v>729</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>723</v>
+        <v>758</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>723</v>
+        <v>762</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>712</v>
+        <v>756</v>
       </c>
     </row>
     <row r="408" spans="1:2">
-      <c r="A408" s="1"/>
+      <c r="A408" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="B408" s="1" t="s">
-        <v>747</v>
+        <v>722</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
     </row>
     <row r="412" spans="1:2">
-      <c r="A412" s="1" t="s">
-        <v>352</v>
-      </c>
+      <c r="A412" s="1"/>
       <c r="B412" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="1" t="s">
-        <v>355</v>
-      </c>
+      <c r="A415" s="1"/>
       <c r="B415" s="1" t="s">
-        <v>712</v>
+        <v>726</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>721</v>
+        <v>758</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="420" spans="1:2">
-      <c r="A420" s="1"/>
+      <c r="A420" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="B420" s="1" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>712</v>
+        <v>758</v>
       </c>
     </row>
     <row r="424" spans="1:2">
-      <c r="A424" s="1"/>
+      <c r="A424" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="B424" s="1" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
     </row>
     <row r="425" spans="1:2">
-      <c r="A425" s="1"/>
+      <c r="A425" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="B425" s="1" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="1"/>
+      <c r="B427" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B426" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2">
-      <c r="A427" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2">
-      <c r="A428" s="1"/>
       <c r="B428" s="1" t="s">
-        <v>718</v>
+        <v>757</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B429" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2">
-      <c r="A430" s="1"/>
       <c r="B430" s="1" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5972,26 +6005,24 @@
         <v>366</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="1"/>
       <c r="B432" s="1" t="s">
-        <v>739</v>
+        <v>760</v>
       </c>
     </row>
     <row r="433" spans="1:2">
-      <c r="A433" s="1" t="s">
-        <v>367</v>
-      </c>
+      <c r="A433" s="1"/>
       <c r="B433" s="1" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>722</v>
@@ -5999,69 +6030,65 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B436" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="1"/>
+      <c r="B437" s="1" t="s">
         <v>730</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2">
-      <c r="A437" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="1"/>
       <c r="B439" s="1" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>750</v>
+        <v>722</v>
       </c>
     </row>
     <row r="441" spans="1:2">
-      <c r="A441" s="1" t="s">
-        <v>374</v>
-      </c>
+      <c r="A441" s="1"/>
       <c r="B441" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>734</v>
@@ -6069,2094 +6096,2090 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>718</v>
+        <v>766</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="A448" s="1"/>
       <c r="B448" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>712</v>
+        <v>757</v>
       </c>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="1"/>
+      <c r="A450" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="B450" s="1" t="s">
-        <v>751</v>
+        <v>722</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="1"/>
       <c r="B451" s="1" t="s">
-        <v>723</v>
+        <v>757</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="1"/>
       <c r="B456" s="1" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>754</v>
+        <v>730</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>754</v>
+        <v>722</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
     </row>
     <row r="461" spans="1:2">
-      <c r="A461" s="1" t="s">
-        <v>391</v>
-      </c>
+      <c r="A461" s="1"/>
       <c r="B461" s="1" t="s">
-        <v>711</v>
+        <v>763</v>
       </c>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="1" t="s">
-        <v>392</v>
-      </c>
+      <c r="A462" s="1"/>
       <c r="B462" s="1" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="1"/>
+      <c r="A466" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="B466" s="1" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>718</v>
+        <v>766</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>718</v>
+        <v>766</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>730</v>
+        <v>758</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>712</v>
+        <v>750</v>
       </c>
     </row>
     <row r="473" spans="1:2">
-      <c r="A473" s="1"/>
+      <c r="A473" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="B473" s="1" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>712</v>
+        <v>766</v>
       </c>
     </row>
     <row r="475" spans="1:2">
-      <c r="A475" s="1"/>
+      <c r="A475" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="B475" s="1" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>723</v>
+        <v>745</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>723</v>
+        <v>745</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="1" t="s">
-        <v>406</v>
-      </c>
+      <c r="A479" s="1"/>
       <c r="B479" s="1" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="1"/>
       <c r="B486" s="1" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="1" t="s">
-        <v>414</v>
-      </c>
+      <c r="A488" s="1"/>
       <c r="B488" s="1" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="1"/>
+      <c r="A492" s="1" t="s">
+        <v>414</v>
+      </c>
       <c r="B492" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="493" spans="1:2">
-      <c r="A493" s="1"/>
+      <c r="A493" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="B493" s="1" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>725</v>
+        <v>758</v>
       </c>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="1"/>
+      <c r="A496" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B496" s="1" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="1" t="s">
-        <v>421</v>
-      </c>
+      <c r="A498" s="1"/>
       <c r="B498" s="1" t="s">
-        <v>715</v>
+        <v>753</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>715</v>
+        <v>755</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="1" t="s">
-        <v>427</v>
-      </c>
+      <c r="A504" s="1"/>
       <c r="B504" s="1" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
     </row>
     <row r="505" spans="1:2">
-      <c r="A505" s="1" t="s">
-        <v>428</v>
-      </c>
+      <c r="A505" s="1"/>
       <c r="B505" s="1" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="1" t="s">
-        <v>431</v>
-      </c>
+      <c r="A508" s="1"/>
       <c r="B508" s="1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="511" spans="1:2">
-      <c r="A511" s="1"/>
+      <c r="A511" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="B511" s="1" t="s">
-        <v>717</v>
+        <v>752</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>718</v>
+        <v>764</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
     </row>
     <row r="517" spans="1:2">
-      <c r="A517" s="1"/>
+      <c r="A517" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="B517" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="1"/>
+      <c r="A518" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="B518" s="1" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="1" t="s">
-        <v>440</v>
-      </c>
+      <c r="A520" s="1"/>
       <c r="B520" s="1" t="s">
-        <v>712</v>
+        <v>729</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="1"/>
+      <c r="A522" s="1" t="s">
+        <v>439</v>
+      </c>
       <c r="B522" s="1" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
     </row>
     <row r="523" spans="1:2">
-      <c r="A523" s="1"/>
+      <c r="A523" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="B523" s="1" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="527" spans="1:2">
-      <c r="A527" s="1" t="s">
-        <v>445</v>
-      </c>
+      <c r="A527" s="1"/>
       <c r="B527" s="1" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="1" t="s">
-        <v>446</v>
-      </c>
+      <c r="A528" s="1"/>
       <c r="B528" s="1" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="1" t="s">
-        <v>448</v>
-      </c>
+      <c r="A530" s="1"/>
       <c r="B530" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="1" t="s">
-        <v>450</v>
-      </c>
+      <c r="A532" s="1"/>
       <c r="B532" s="1" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
     </row>
     <row r="533" spans="1:2">
-      <c r="A533" s="1" t="s">
-        <v>451</v>
-      </c>
+      <c r="A533" s="1"/>
       <c r="B533" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="1"/>
+      <c r="A534" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="B534" s="1" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="1"/>
+      <c r="A540" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="B540" s="1" t="s">
-        <v>732</v>
+        <v>766</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>728</v>
+        <v>762</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
     </row>
     <row r="543" spans="1:2">
-      <c r="A543" s="1"/>
+      <c r="A543" s="1" t="s">
+        <v>455</v>
+      </c>
       <c r="B543" s="1" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
     </row>
     <row r="545" spans="1:2">
-      <c r="A545" s="1" t="s">
-        <v>460</v>
-      </c>
+      <c r="A545" s="1"/>
       <c r="B545" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>712</v>
+        <v>757</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>712</v>
+        <v>739</v>
       </c>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="1"/>
+      <c r="A550" s="1" t="s">
+        <v>461</v>
+      </c>
       <c r="B550" s="1" t="s">
-        <v>723</v>
+        <v>745</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="1"/>
       <c r="B552" s="1" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="555" spans="1:2">
-      <c r="A555" s="1" t="s">
-        <v>468</v>
-      </c>
+      <c r="A555" s="1"/>
       <c r="B555" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>758</v>
+        <v>734</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>723</v>
+        <v>764</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>723</v>
+        <v>764</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="1"/>
       <c r="B563" s="1" t="s">
-        <v>711</v>
+        <v>735</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
     </row>
     <row r="565" spans="1:2">
-      <c r="A565" s="1" t="s">
-        <v>477</v>
-      </c>
+      <c r="A565" s="1"/>
       <c r="B565" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="1"/>
+      <c r="B566" s="1" t="s">
         <v>738</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2">
-      <c r="A566" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B566" s="1" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="1" t="s">
-        <v>482</v>
-      </c>
+      <c r="A570" s="1"/>
       <c r="B570" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>741</v>
+        <v>766</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
     </row>
     <row r="573" spans="1:2">
-      <c r="A573" s="1"/>
+      <c r="A573" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="B573" s="1" t="s">
-        <v>727</v>
+        <v>758</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>724</v>
+        <v>748</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="1" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>754</v>
+        <v>722</v>
       </c>
     </row>
     <row r="579" spans="1:2">
-      <c r="A579" s="1" t="s">
-        <v>490</v>
-      </c>
+      <c r="A579" s="1"/>
       <c r="B579" s="1" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>712</v>
+        <v>751</v>
       </c>
     </row>
     <row r="581" spans="1:2">
-      <c r="A581" s="1"/>
+      <c r="A581" s="1" t="s">
+        <v>485</v>
+      </c>
       <c r="B581" s="1" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>723</v>
+        <v>745</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>712</v>
+        <v>753</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
     </row>
     <row r="587" spans="1:2">
-      <c r="A587" s="1" t="s">
-        <v>497</v>
-      </c>
+      <c r="A587" s="1"/>
       <c r="B587" s="1" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>730</v>
+        <v>767</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="1" t="s">
-        <v>504</v>
-      </c>
+      <c r="A594" s="1"/>
       <c r="B594" s="1" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="1" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="1" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>712</v>
+        <v>758</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="1" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="1"/>
+      <c r="A606" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="B606" s="1" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="1"/>
       <c r="B611" s="1" t="s">
-        <v>715</v>
+        <v>734</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="1" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>728</v>
+        <v>752</v>
       </c>
     </row>
     <row r="613" spans="1:2">
-      <c r="A613" s="1"/>
+      <c r="A613" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="B613" s="1" t="s">
-        <v>713</v>
+        <v>734</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="617" spans="1:2">
-      <c r="A617" s="1"/>
+      <c r="A617" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="B617" s="1" t="s">
-        <v>733</v>
+        <v>760</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>712</v>
+        <v>750</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="623" spans="1:2">
-      <c r="A623" s="1" t="s">
-        <v>529</v>
-      </c>
+      <c r="A623" s="1"/>
       <c r="B623" s="1" t="s">
-        <v>712</v>
+        <v>742</v>
       </c>
     </row>
     <row r="624" spans="1:2">
-      <c r="A624" s="1"/>
+      <c r="A624" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="B624" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>751</v>
+        <v>722</v>
       </c>
     </row>
     <row r="628" spans="1:2">
-      <c r="A628" s="1" t="s">
-        <v>533</v>
-      </c>
+      <c r="A628" s="1"/>
       <c r="B628" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
     </row>
     <row r="630" spans="1:2">
-      <c r="A630" s="1" t="s">
-        <v>535</v>
-      </c>
+      <c r="A630" s="1"/>
       <c r="B630" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="1" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="1" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="634" spans="1:2">
-      <c r="A634" s="1" t="s">
-        <v>539</v>
-      </c>
+      <c r="A634" s="1"/>
       <c r="B634" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="1" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="1" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="1" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="641" spans="1:2">
-      <c r="A641" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="A641" s="1"/>
       <c r="B641" s="1" t="s">
-        <v>718</v>
+        <v>744</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="1" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="1" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>712</v>
+        <v>744</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="1" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>712</v>
+        <v>744</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="1" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>712</v>
+        <v>748</v>
       </c>
     </row>
     <row r="647" spans="1:2">
-      <c r="A647" s="1"/>
+      <c r="A647" s="1" t="s">
+        <v>543</v>
+      </c>
       <c r="B647" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="1" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="1" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>712</v>
+        <v>760</v>
       </c>
     </row>
     <row r="650" spans="1:2">
-      <c r="A650" s="1"/>
+      <c r="A650" s="1" t="s">
+        <v>546</v>
+      </c>
       <c r="B650" s="1" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>712</v>
+        <v>738</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="1" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>712</v>
+        <v>757</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="1" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
     </row>
     <row r="654" spans="1:2">
-      <c r="A654" s="1"/>
+      <c r="A654" s="1" t="s">
+        <v>550</v>
+      </c>
       <c r="B654" s="1" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="655" spans="1:2">
-      <c r="A655" s="1"/>
+      <c r="A655" s="1" t="s">
+        <v>551</v>
+      </c>
       <c r="B655" s="1" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>737</v>
+        <v>758</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
     </row>
     <row r="658" spans="1:2">
-      <c r="A658" s="1"/>
+      <c r="A658" s="1" t="s">
+        <v>554</v>
+      </c>
       <c r="B658" s="1" t="s">
-        <v>711</v>
+        <v>731</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>736</v>
+        <v>762</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="663" spans="1:2">
-      <c r="A663" s="1"/>
+      <c r="A663" s="1" t="s">
+        <v>559</v>
+      </c>
       <c r="B663" s="1" t="s">
-        <v>719</v>
+        <v>751</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>752</v>
+        <v>722</v>
       </c>
     </row>
     <row r="666" spans="1:2">
-      <c r="A666" s="1" t="s">
-        <v>565</v>
-      </c>
+      <c r="A666" s="1"/>
       <c r="B666" s="1" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>752</v>
+        <v>722</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="669" spans="1:2">
-      <c r="A669" s="1" t="s">
-        <v>568</v>
-      </c>
+      <c r="A669" s="1"/>
       <c r="B669" s="1" t="s">
-        <v>737</v>
+        <v>767</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="672" spans="1:2">
-      <c r="A672" s="1"/>
+      <c r="A672" s="1" t="s">
+        <v>566</v>
+      </c>
       <c r="B672" s="1" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>713</v>
+        <v>752</v>
       </c>
     </row>
     <row r="674" spans="1:2">
-      <c r="A674" s="1" t="s">
-        <v>572</v>
-      </c>
+      <c r="A674" s="1"/>
       <c r="B674" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="675" spans="1:2">
-      <c r="A675" s="1" t="s">
-        <v>573</v>
-      </c>
+      <c r="A675" s="1"/>
       <c r="B675" s="1" t="s">
-        <v>732</v>
+        <v>770</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="1" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B677" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="1"/>
+      <c r="B678" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="678" spans="1:2">
-      <c r="A678" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B678" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
     <row r="679" spans="1:2">
-      <c r="A679" s="1"/>
+      <c r="A679" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="B679" s="1" t="s">
-        <v>718</v>
+        <v>738</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="1"/>
       <c r="B681" s="1" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>712</v>
+        <v>739</v>
       </c>
     </row>
     <row r="683" spans="1:2">
-      <c r="A683" s="1"/>
+      <c r="A683" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="B683" s="1" t="s">
-        <v>723</v>
+        <v>764</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
     </row>
     <row r="685" spans="1:2">
-      <c r="A685" s="1"/>
+      <c r="A685" s="1" t="s">
+        <v>575</v>
+      </c>
       <c r="B685" s="1" t="s">
-        <v>723</v>
+        <v>764</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>723</v>
+        <v>749</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="689" spans="1:2">
-      <c r="A689" s="1" t="s">
-        <v>583</v>
-      </c>
+      <c r="A689" s="1"/>
       <c r="B689" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>718</v>
+        <v>758</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>713</v>
+        <v>744</v>
       </c>
     </row>
     <row r="693" spans="1:2">
-      <c r="A693" s="1"/>
+      <c r="A693" s="1" t="s">
+        <v>582</v>
+      </c>
       <c r="B693" s="1" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
     </row>
     <row r="697" spans="1:2">
-      <c r="A697" s="1" t="s">
-        <v>590</v>
-      </c>
+      <c r="A697" s="1"/>
       <c r="B697" s="1" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
     </row>
     <row r="700" spans="1:2">
-      <c r="A700" s="1" t="s">
-        <v>593</v>
-      </c>
+      <c r="A700" s="1"/>
       <c r="B700" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="701" spans="1:2">
-      <c r="A701" s="1"/>
+      <c r="A701" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="B701" s="1" t="s">
-        <v>731</v>
+        <v>763</v>
       </c>
     </row>
     <row r="702" spans="1:2">
-      <c r="A702" s="1" t="s">
-        <v>594</v>
-      </c>
+      <c r="A702" s="1"/>
       <c r="B702" s="1" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="1" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="1" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
     </row>
     <row r="706" spans="1:2">
-      <c r="A706" s="1"/>
+      <c r="A706" s="1" t="s">
+        <v>592</v>
+      </c>
       <c r="B706" s="1" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>723</v>
+        <v>762</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>750</v>
+        <v>723</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -8167,651 +8190,651 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>712</v>
+        <v>744</v>
       </c>
     </row>
     <row r="718" spans="1:2">
-      <c r="A718" s="1"/>
+      <c r="A718" s="1" t="s">
+        <v>603</v>
+      </c>
       <c r="B718" s="1" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
     </row>
     <row r="719" spans="1:2">
-      <c r="A719" s="1"/>
+      <c r="A719" s="1" t="s">
+        <v>604</v>
+      </c>
       <c r="B719" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
     </row>
     <row r="721" spans="1:2">
-      <c r="A721" s="1" t="s">
-        <v>609</v>
-      </c>
+      <c r="A721" s="1"/>
       <c r="B721" s="1" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>712</v>
+        <v>743</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>712</v>
+        <v>753</v>
       </c>
     </row>
     <row r="726" spans="1:2">
-      <c r="A726" s="1"/>
+      <c r="A726" s="1" t="s">
+        <v>610</v>
+      </c>
       <c r="B726" s="1" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
     </row>
     <row r="730" spans="1:2">
-      <c r="A730" s="1" t="s">
-        <v>617</v>
-      </c>
+      <c r="A730" s="1"/>
       <c r="B730" s="1" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="732" spans="1:2">
-      <c r="A732" s="1" t="s">
-        <v>619</v>
-      </c>
+      <c r="A732" s="1"/>
       <c r="B732" s="1" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
     </row>
     <row r="733" spans="1:2">
-      <c r="A733" s="1" t="s">
-        <v>620</v>
-      </c>
+      <c r="A733" s="1"/>
       <c r="B733" s="1" t="s">
-        <v>712</v>
+        <v>756</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="736" spans="1:2">
-      <c r="A736" s="1" t="s">
-        <v>623</v>
-      </c>
+      <c r="A736" s="1"/>
       <c r="B736" s="1" t="s">
-        <v>713</v>
+        <v>767</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="1" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="1" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="1" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="740" spans="1:2">
-      <c r="A740" s="1" t="s">
-        <v>627</v>
-      </c>
+      <c r="A740" s="1"/>
       <c r="B740" s="1" t="s">
-        <v>723</v>
+        <v>760</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>712</v>
+        <v>760</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="1" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>738</v>
+        <v>760</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>738</v>
+        <v>760</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>718</v>
+        <v>760</v>
       </c>
     </row>
     <row r="745" spans="1:2">
-      <c r="A745" s="1"/>
+      <c r="A745" s="1" t="s">
+        <v>624</v>
+      </c>
       <c r="B745" s="1" t="s">
-        <v>726</v>
+        <v>760</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="1" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="1" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>720</v>
+        <v>758</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="1" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="749" spans="1:2">
-      <c r="A749" s="1"/>
+      <c r="A749" s="1" t="s">
+        <v>628</v>
+      </c>
       <c r="B749" s="1" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>728</v>
+        <v>749</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>712</v>
+        <v>746</v>
       </c>
     </row>
     <row r="754" spans="1:2">
-      <c r="A754" s="1"/>
+      <c r="A754" s="1" t="s">
+        <v>633</v>
+      </c>
       <c r="B754" s="1" t="s">
-        <v>711</v>
+        <v>746</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="1" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="1" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
     </row>
     <row r="764" spans="1:2">
-      <c r="A764" s="1"/>
+      <c r="A764" s="1" t="s">
+        <v>643</v>
+      </c>
       <c r="B764" s="1" t="s">
-        <v>731</v>
+        <v>755</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B765" s="1" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="766" spans="1:2">
-      <c r="A766" s="1" t="s">
-        <v>649</v>
-      </c>
+      <c r="A766" s="1"/>
       <c r="B766" s="1" t="s">
-        <v>720</v>
+        <v>755</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="1" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="769" spans="1:2">
-      <c r="A769" s="1" t="s">
-        <v>652</v>
-      </c>
+      <c r="A769" s="1"/>
       <c r="B769" s="1" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="1" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
     </row>
     <row r="775" spans="1:2">
-      <c r="A775" s="1"/>
+      <c r="A775" s="1" t="s">
+        <v>652</v>
+      </c>
       <c r="B775" s="1" t="s">
-        <v>718</v>
+        <v>750</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>726</v>
+        <v>760</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="779" spans="1:2">
-      <c r="A779" s="1" t="s">
-        <v>661</v>
-      </c>
+      <c r="A779" s="1"/>
       <c r="B779" s="1" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="782" spans="1:2">
-      <c r="A782" s="1"/>
+      <c r="A782" s="1" t="s">
+        <v>658</v>
+      </c>
       <c r="B782" s="1" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="789" spans="1:2">
-      <c r="A789" s="1"/>
+      <c r="A789" s="1" t="s">
+        <v>665</v>
+      </c>
       <c r="B789" s="1" t="s">
-        <v>760</v>
+        <v>730</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>722</v>
+        <v>766</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>747</v>
+        <v>722</v>
       </c>
     </row>
     <row r="798" spans="1:2">
-      <c r="A798" s="1" t="s">
-        <v>678</v>
-      </c>
+      <c r="A798" s="1"/>
       <c r="B798" s="1" t="s">
-        <v>738</v>
+        <v>758</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B800" s="1" t="s">
         <v>722</v>
@@ -8819,235 +8842,233 @@
     </row>
     <row r="801" spans="1:2">
       <c r="A801" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="803" spans="1:2">
-      <c r="A803" s="1"/>
+      <c r="A803" s="1" t="s">
+        <v>678</v>
+      </c>
       <c r="B803" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="804" spans="1:2">
-      <c r="A804" s="1" t="s">
-        <v>683</v>
-      </c>
+      <c r="A804" s="1"/>
       <c r="B804" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="807" spans="1:2">
-      <c r="A807" s="1" t="s">
-        <v>686</v>
-      </c>
+      <c r="A807" s="1"/>
       <c r="B807" s="1" t="s">
-        <v>723</v>
+        <v>771</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" s="1" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" s="1" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" s="1" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>747</v>
+        <v>723</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" s="1" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" s="1" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" s="1" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" s="1" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" s="1" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" s="1" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>758</v>
+        <v>729</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
     </row>
     <row r="821" spans="1:2">
-      <c r="A821" s="1" t="s">
-        <v>700</v>
-      </c>
+      <c r="A821" s="1"/>
       <c r="B821" s="1" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="822" spans="1:2">
-      <c r="A822" s="1"/>
+      <c r="A822" s="1" t="s">
+        <v>694</v>
+      </c>
       <c r="B822" s="1" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" s="1" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" s="1" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" s="1" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>718</v>
+        <v>746</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" s="1" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>718</v>
+        <v>767</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" s="1" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" s="1" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" s="1" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B830" s="1" t="s">
         <v>726</v>
@@ -9055,136 +9076,285 @@
     </row>
     <row r="831" spans="1:2">
       <c r="A831" s="1" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B832" s="1" t="s">
+      <c r="B838" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="1"/>
+      <c r="B839" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" s="1" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="833" spans="1:2">
-      <c r="A833" s="1"/>
-      <c r="B833" s="1" t="s">
-        <v>761</v>
+      <c r="B841" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B846" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" s="1"/>
+      <c r="B851" s="1" t="s">
+        <v>772</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="108">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A65:A66"/>
+  <mergeCells count="115">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A75:A76"/>
     <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A114:A115"/>
     <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A143:A144"/>
     <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="A231:A235"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="A261:A263"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="A290:A291"/>
-    <mergeCell ref="A300:A301"/>
-    <mergeCell ref="A313:A315"/>
-    <mergeCell ref="A317:A319"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="A326:A327"/>
-    <mergeCell ref="A331:A332"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="A239:A242"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="A268:A270"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="A288:A289"/>
+    <mergeCell ref="A297:A298"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="A320:A322"/>
+    <mergeCell ref="A324:A326"/>
+    <mergeCell ref="A329:A330"/>
+    <mergeCell ref="A333:A334"/>
     <mergeCell ref="A338:A339"/>
     <mergeCell ref="A345:A346"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="A359:A360"/>
-    <mergeCell ref="A363:A364"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="A372:A373"/>
-    <mergeCell ref="A377:A378"/>
+    <mergeCell ref="A350:A351"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="A356:A357"/>
+    <mergeCell ref="A366:A367"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="A375:A376"/>
+    <mergeCell ref="A380:A381"/>
     <mergeCell ref="A385:A386"/>
-    <mergeCell ref="A387:A388"/>
-    <mergeCell ref="A398:A399"/>
-    <mergeCell ref="A407:A408"/>
-    <mergeCell ref="A419:A420"/>
-    <mergeCell ref="A423:A425"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="A429:A430"/>
-    <mergeCell ref="A431:A432"/>
+    <mergeCell ref="A393:A394"/>
+    <mergeCell ref="A395:A396"/>
+    <mergeCell ref="A411:A412"/>
+    <mergeCell ref="A414:A415"/>
+    <mergeCell ref="A426:A427"/>
+    <mergeCell ref="A431:A433"/>
+    <mergeCell ref="A436:A437"/>
     <mergeCell ref="A438:A439"/>
-    <mergeCell ref="A449:A451"/>
+    <mergeCell ref="A440:A441"/>
+    <mergeCell ref="A447:A448"/>
+    <mergeCell ref="A450:A451"/>
     <mergeCell ref="A455:A456"/>
-    <mergeCell ref="A465:A466"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="A474:A475"/>
+    <mergeCell ref="A460:A462"/>
+    <mergeCell ref="A478:A479"/>
     <mergeCell ref="A485:A486"/>
-    <mergeCell ref="A491:A493"/>
-    <mergeCell ref="A495:A496"/>
-    <mergeCell ref="A510:A511"/>
-    <mergeCell ref="A516:A518"/>
-    <mergeCell ref="A521:A523"/>
-    <mergeCell ref="A533:A534"/>
-    <mergeCell ref="A539:A540"/>
-    <mergeCell ref="A542:A543"/>
-    <mergeCell ref="A549:A550"/>
+    <mergeCell ref="A487:A488"/>
+    <mergeCell ref="A497:A498"/>
+    <mergeCell ref="A503:A505"/>
+    <mergeCell ref="A507:A508"/>
+    <mergeCell ref="A519:A520"/>
+    <mergeCell ref="A526:A528"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="A531:A533"/>
+    <mergeCell ref="A544:A545"/>
     <mergeCell ref="A551:A552"/>
+    <mergeCell ref="A554:A555"/>
     <mergeCell ref="A562:A563"/>
-    <mergeCell ref="A572:A573"/>
-    <mergeCell ref="A580:A581"/>
-    <mergeCell ref="A605:A606"/>
+    <mergeCell ref="A564:A566"/>
+    <mergeCell ref="A569:A570"/>
+    <mergeCell ref="A578:A579"/>
+    <mergeCell ref="A586:A587"/>
+    <mergeCell ref="A593:A594"/>
     <mergeCell ref="A610:A611"/>
-    <mergeCell ref="A612:A613"/>
-    <mergeCell ref="A616:A617"/>
-    <mergeCell ref="A623:A624"/>
-    <mergeCell ref="A646:A647"/>
-    <mergeCell ref="A649:A650"/>
-    <mergeCell ref="A653:A655"/>
-    <mergeCell ref="A657:A658"/>
-    <mergeCell ref="A662:A663"/>
-    <mergeCell ref="A671:A672"/>
-    <mergeCell ref="A678:A679"/>
+    <mergeCell ref="A622:A623"/>
+    <mergeCell ref="A627:A628"/>
+    <mergeCell ref="A629:A630"/>
+    <mergeCell ref="A633:A634"/>
+    <mergeCell ref="A640:A641"/>
+    <mergeCell ref="A665:A666"/>
+    <mergeCell ref="A668:A669"/>
+    <mergeCell ref="A673:A675"/>
+    <mergeCell ref="A677:A678"/>
     <mergeCell ref="A680:A681"/>
-    <mergeCell ref="A682:A683"/>
-    <mergeCell ref="A684:A685"/>
-    <mergeCell ref="A692:A693"/>
-    <mergeCell ref="A700:A701"/>
-    <mergeCell ref="A705:A706"/>
+    <mergeCell ref="A688:A689"/>
+    <mergeCell ref="A696:A697"/>
+    <mergeCell ref="A699:A700"/>
+    <mergeCell ref="A701:A702"/>
     <mergeCell ref="A715:A716"/>
-    <mergeCell ref="A717:A719"/>
-    <mergeCell ref="A725:A726"/>
-    <mergeCell ref="A744:A745"/>
-    <mergeCell ref="A748:A749"/>
-    <mergeCell ref="A753:A754"/>
-    <mergeCell ref="A763:A764"/>
-    <mergeCell ref="A774:A775"/>
-    <mergeCell ref="A781:A782"/>
-    <mergeCell ref="A788:A789"/>
-    <mergeCell ref="A802:A803"/>
-    <mergeCell ref="A821:A822"/>
-    <mergeCell ref="A832:A833"/>
+    <mergeCell ref="A720:A721"/>
+    <mergeCell ref="A729:A730"/>
+    <mergeCell ref="A731:A733"/>
+    <mergeCell ref="A735:A736"/>
+    <mergeCell ref="A739:A740"/>
+    <mergeCell ref="A765:A766"/>
+    <mergeCell ref="A768:A769"/>
+    <mergeCell ref="A778:A779"/>
+    <mergeCell ref="A797:A798"/>
+    <mergeCell ref="A803:A804"/>
+    <mergeCell ref="A806:A807"/>
+    <mergeCell ref="A820:A821"/>
+    <mergeCell ref="A838:A839"/>
+    <mergeCell ref="A850:A851"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
